--- a/项目进度控制表.xlsx
+++ b/项目进度控制表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9982FF-80A2-461C-85BF-925A0A453491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="23">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -87,11 +93,15 @@
   <si>
     <t>我的缺寝记录</t>
   </si>
+  <si>
+    <t>参数方程解决的发挥中改和v</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,13 +344,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +435,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +487,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,22 +679,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -656,7 +703,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -684,7 +731,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -693,7 +740,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -702,7 +749,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -711,7 +758,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -720,7 +767,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -729,7 +776,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -738,7 +785,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -747,7 +794,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -756,7 +803,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -765,7 +812,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -774,7 +821,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -783,7 +830,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -794,7 +841,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -803,7 +850,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -812,7 +859,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -821,7 +868,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -830,7 +877,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -841,7 +888,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -850,7 +897,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -859,7 +906,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -868,49 +915,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -927,22 +974,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -951,7 +998,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1026,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -988,7 +1035,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -997,7 +1044,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1006,7 +1053,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1015,7 +1062,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1024,7 +1071,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1033,7 +1080,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1042,7 +1089,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1051,7 +1098,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1060,7 +1107,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1069,7 +1116,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1078,7 +1125,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1136,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1098,7 +1145,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1107,7 +1154,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1116,7 +1163,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1125,7 +1172,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1183,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1145,7 +1192,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1154,7 +1201,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1163,49 +1210,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1222,22 +1269,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1293,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,18 +1310,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1283,7 +1332,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1292,7 +1341,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1301,7 +1350,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1310,7 +1359,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1319,7 +1368,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1328,7 +1377,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1337,7 +1386,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1346,7 +1395,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1355,7 +1404,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1364,7 +1413,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1373,7 +1422,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1433,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1393,7 +1442,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1402,7 +1451,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1411,7 +1460,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1420,7 +1469,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1480,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1440,7 +1489,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1449,7 +1498,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1458,49 +1507,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1517,22 +1566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1590,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1618,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1578,7 +1627,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1587,7 +1636,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1596,7 +1645,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1605,7 +1654,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1614,7 +1663,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1623,7 +1672,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1632,7 +1681,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1641,7 +1690,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1650,7 +1699,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1659,7 +1708,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1668,7 +1717,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1728,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1688,7 +1737,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1697,7 +1746,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1706,7 +1755,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1715,7 +1764,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1726,7 +1775,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1735,7 +1784,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1744,7 +1793,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1753,49 +1802,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1811,22 +1860,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1884,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1912,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1872,7 +1921,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1881,7 +1930,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1890,7 +1939,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1899,7 +1948,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1908,7 +1957,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1917,7 +1966,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1926,7 +1975,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1935,7 +1984,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1944,7 +1993,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1953,7 +2002,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1962,7 +2011,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +2022,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1982,7 +2031,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1991,7 +2040,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2000,7 +2049,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2009,7 +2058,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2069,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2029,7 +2078,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2038,7 +2087,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2047,49 +2096,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2105,22 +2154,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2178,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2206,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2166,7 +2215,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2175,7 +2224,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2184,7 +2233,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2193,7 +2242,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2202,7 +2251,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2211,7 +2260,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2220,7 +2269,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2229,7 +2278,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2238,7 +2287,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2247,7 +2296,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2256,7 +2305,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2316,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2276,7 +2325,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2285,7 +2334,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2294,7 +2343,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2303,7 +2352,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2314,7 +2363,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2323,7 +2372,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2332,7 +2381,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2341,49 +2390,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2399,22 +2448,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2472,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2502,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2462,7 +2511,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2471,7 +2520,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2480,7 +2529,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2489,7 +2538,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2498,7 +2547,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2507,7 +2556,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2516,7 +2565,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2525,7 +2574,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2534,7 +2583,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2543,7 +2592,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2552,7 +2601,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2612,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2572,7 +2621,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2581,7 +2630,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2590,7 +2639,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2599,7 +2648,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2659,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2619,7 +2668,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2628,7 +2677,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2637,49 +2686,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="18"/>
     </row>
   </sheetData>

--- a/项目进度控制表.xlsx
+++ b/项目进度控制表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD6D37-276C-404D-8DD6-EB483802ECCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="1950" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -91,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,18 +118,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,46 +140,54 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,13 +351,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +442,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -647,7 +701,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -656,7 +710,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -684,7 +738,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -693,7 +747,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -702,7 +756,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -711,7 +765,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -720,7 +774,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -729,7 +783,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -738,7 +792,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -747,7 +801,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -756,7 +810,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -765,7 +819,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -774,7 +828,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -783,7 +837,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -794,7 +848,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -803,7 +857,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -812,7 +866,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -821,7 +875,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -830,7 +884,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -841,7 +895,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -850,7 +904,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -859,7 +913,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -868,49 +922,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -927,14 +981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -942,7 +996,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1005,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1033,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -988,7 +1042,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -997,7 +1051,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1006,7 +1060,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1015,7 +1069,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1024,7 +1078,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1033,7 +1087,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1042,7 +1096,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1051,7 +1105,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1060,7 +1114,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1069,7 +1123,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1078,7 +1132,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1143,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1098,7 +1152,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1107,7 +1161,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1116,7 +1170,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1125,7 +1179,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1190,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1145,7 +1199,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1154,7 +1208,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1163,49 +1217,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1222,14 +1276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1237,7 +1291,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1300,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1328,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1283,7 +1337,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1292,7 +1346,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1301,7 +1355,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1310,7 +1364,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1319,7 +1373,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1328,7 +1382,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1337,7 +1391,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1346,7 +1400,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1355,7 +1409,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1364,7 +1418,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1373,7 +1427,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1438,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1393,7 +1447,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1402,7 +1456,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1411,7 +1465,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1420,7 +1474,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1485,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1440,7 +1494,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1449,7 +1503,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1458,49 +1512,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1517,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1532,7 +1586,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1595,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1623,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1578,7 +1632,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1587,7 +1641,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1596,7 +1650,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1605,7 +1659,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1614,7 +1668,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1623,7 +1677,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1632,7 +1686,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1641,7 +1695,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1650,7 +1704,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1659,7 +1713,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1668,7 +1722,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1733,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1688,7 +1742,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1697,7 +1751,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1706,7 +1760,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1715,7 +1769,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -1726,7 +1780,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1735,7 +1789,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1744,7 +1798,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1753,49 +1807,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1811,14 +1865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1826,7 +1880,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1889,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1852,18 +1906,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="3">
+        <v>123123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>123123</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1872,7 +1930,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1881,7 +1939,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1890,7 +1948,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1899,7 +1957,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1908,7 +1966,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1917,7 +1975,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1926,7 +1984,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1935,7 +1993,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1944,7 +2002,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1953,7 +2011,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1962,7 +2020,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +2031,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1982,7 +2040,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1991,7 +2049,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2000,7 +2058,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2009,7 +2067,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2078,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2029,7 +2087,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2038,7 +2096,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2047,49 +2105,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2105,14 +2163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2120,7 +2178,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2187,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2215,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2166,7 +2224,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2175,7 +2233,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2184,7 +2242,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2193,7 +2251,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2202,7 +2260,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2211,7 +2269,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2220,7 +2278,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2229,7 +2287,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2238,7 +2296,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2247,7 +2305,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2256,7 +2314,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2325,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2276,7 +2334,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2285,7 +2343,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2294,7 +2352,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2303,7 +2361,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2314,7 +2372,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2323,7 +2381,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2332,7 +2390,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2341,49 +2399,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2399,14 +2457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2414,7 +2472,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2481,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2511,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2462,7 +2520,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2471,7 +2529,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2480,7 +2538,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2489,7 +2547,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2498,7 +2556,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2507,7 +2565,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2516,7 +2574,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2525,7 +2583,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2534,7 +2592,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2543,7 +2601,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2552,7 +2610,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2621,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2572,7 +2630,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2581,7 +2639,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2590,7 +2648,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2599,7 +2657,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2668,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2619,7 +2677,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2628,7 +2686,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2637,49 +2695,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2691,5 +2749,6 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/项目进度控制表.xlsx
+++ b/项目进度控制表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,15 +658,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -672,7 +675,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -704,7 +707,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -713,7 +716,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -722,7 +725,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -731,7 +734,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -740,7 +743,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -749,7 +752,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -758,7 +761,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -767,7 +770,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -776,7 +779,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -785,7 +788,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -794,7 +797,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -803,7 +806,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -818,7 +821,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -827,7 +830,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -836,7 +839,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -845,7 +848,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -854,7 +857,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -869,7 +872,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -878,7 +881,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -887,7 +890,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -896,49 +899,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -962,15 +965,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -979,7 +982,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -996,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1010,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1016,7 +1019,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1025,7 +1028,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1034,7 +1037,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1043,7 +1046,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1052,7 +1055,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1061,7 +1064,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1070,7 +1073,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1079,7 +1082,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1088,7 +1091,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1097,7 +1100,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1106,7 +1109,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1120,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1126,7 +1129,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1135,7 +1138,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1144,7 +1147,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1153,7 +1156,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1173,7 +1176,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1182,7 +1185,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1191,49 +1194,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1257,15 +1260,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1277,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1311,7 +1314,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1320,7 +1323,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1329,7 +1332,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1338,7 +1341,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1347,7 +1350,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1356,7 +1359,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1365,7 +1368,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1374,7 +1377,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1383,7 +1386,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1392,7 +1395,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1401,7 +1404,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1421,7 +1424,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1430,7 +1433,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1439,7 +1442,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1448,7 +1451,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1468,7 +1471,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1477,7 +1480,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1486,49 +1489,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1552,15 +1555,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1600,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1606,7 +1609,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1615,7 +1618,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1624,7 +1627,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1633,7 +1636,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1642,7 +1645,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1651,7 +1654,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1660,7 +1663,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1669,7 +1672,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1678,7 +1681,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1687,7 +1690,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1696,7 +1699,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1710,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1716,7 +1719,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1725,7 +1728,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1734,7 +1737,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1743,7 +1746,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1763,7 +1766,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1772,7 +1775,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1781,49 +1784,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1846,15 +1849,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1866,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1898,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1904,7 +1907,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1913,7 +1916,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1922,7 +1925,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1931,7 +1934,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1940,7 +1943,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1949,7 +1952,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1958,7 +1961,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1967,7 +1970,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1976,7 +1979,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1985,7 +1988,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1994,7 +1997,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -2005,7 +2008,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2014,7 +2017,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2023,7 +2026,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2032,7 +2035,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2041,7 +2044,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2055,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2061,7 +2064,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2070,7 +2073,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2079,49 +2082,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2140,19 +2143,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2164,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2178,18 +2181,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="3">
+        <v>43663</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2198,7 +2205,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2207,7 +2214,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2216,7 +2223,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2225,7 +2232,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2234,7 +2241,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2243,7 +2250,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2252,7 +2259,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2261,7 +2268,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2270,7 +2277,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2279,7 +2286,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2288,18 +2295,22 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7">
+        <v>43663</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2308,7 +2319,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2317,7 +2328,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2326,7 +2337,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2335,18 +2346,22 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="7">
+        <v>43663</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2355,7 +2370,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2364,7 +2379,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2373,49 +2388,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2434,19 +2449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2470,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2502,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2502,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2511,7 +2526,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2520,7 +2535,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2529,7 +2544,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2538,7 +2553,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2547,7 +2562,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2556,7 +2571,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2565,7 +2580,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2574,7 +2589,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2583,7 +2598,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2592,7 +2607,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>19</v>
       </c>
@@ -2607,7 +2622,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2616,7 +2631,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2625,7 +2640,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2634,7 +2649,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2643,7 +2658,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2673,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2667,7 +2682,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2676,7 +2691,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2685,49 +2700,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
